--- a/server/assign_exclusive.xlsx
+++ b/server/assign_exclusive.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unito365-my.sharepoint.com/personal/emilio_hirsch_unito_it/Documents/Documenti/Lab/docs/Centro MBC/Booking App Python/BookingMBC/server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{25C65536-FA7F-412D-9F6F-F0A62E3FE6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ED1FF57-6B07-479E-87CA-BA152DF8A9D9}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{25C65536-FA7F-412D-9F6F-F0A62E3FE6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE620B4C-9623-458F-B206-3CB97A40CB3B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{4FF9D835-BCE4-467B-A36E-BBC318EDD5A9}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="354">
   <si>
     <t>FACSVerse</t>
   </si>
@@ -1105,7 +1105,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1143,6 +1143,14 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1200,11 +1208,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1253,8 +1262,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Collegamento ipertestuale" xfId="2" builtinId="8"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Normale 2" xfId="1" xr:uid="{DD2F103D-A6CD-4BA5-9BB3-4249F4646E99}"/>
   </cellStyles>
@@ -8345,8 +8356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3685052-CB29-4C86-8CE0-1180645304CF}">
   <dimension ref="A1:BY85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BG12" sqref="BG12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10916,6 +10927,9 @@
       <c r="F14" t="s">
         <v>189</v>
       </c>
+      <c r="G14" s="18" t="s">
+        <v>208</v>
+      </c>
       <c r="H14" t="s">
         <v>301</v>
       </c>
@@ -12491,6 +12505,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G14" r:id="rId1" xr:uid="{DBA34954-5543-4057-90F9-AD6AECCBD36A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13172,7 +13189,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId3" name="Control 1">
+        <control shapeId="2173" r:id="rId3" name="Control 125">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -13192,13 +13209,238 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId3" name="Control 1"/>
+        <control shapeId="2173" r:id="rId3" name="Control 125"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId5" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId6">
+        <control shapeId="2172" r:id="rId5" name="Control 124">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2172" r:id="rId5" name="Control 124"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2171" r:id="rId6" name="Control 123">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2171" r:id="rId6" name="Control 123"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2170" r:id="rId7" name="Control 122">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2170" r:id="rId7" name="Control 122"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2169" r:id="rId8" name="Control 121">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2169" r:id="rId8" name="Control 121"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2168" r:id="rId9" name="Control 120">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2168" r:id="rId9" name="Control 120"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2167" r:id="rId10" name="Control 119">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2167" r:id="rId10" name="Control 119"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2166" r:id="rId11" name="Control 118">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2166" r:id="rId11" name="Control 118"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2165" r:id="rId12" name="Control 117">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2165" r:id="rId12" name="Control 117"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2164" r:id="rId13" name="Control 116">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2164" r:id="rId13" name="Control 116"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2163" r:id="rId14" name="Control 115">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -13217,337 +13459,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2050" r:id="rId5" name="Control 2"/>
+        <control shapeId="2163" r:id="rId14" name="Control 115"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId7" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2051" r:id="rId7" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId8" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2052" r:id="rId8" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId9" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2053" r:id="rId9" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId10" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2054" r:id="rId10" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2055" r:id="rId11" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2055" r:id="rId11" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2056" r:id="rId12" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2056" r:id="rId12" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId13" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2057" r:id="rId13" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2058" r:id="rId14" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2058" r:id="rId14" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2059" r:id="rId15" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2059" r:id="rId15" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2060" r:id="rId16" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2060" r:id="rId16" name="Control 12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId17" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2061" r:id="rId17" name="Control 13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2062" r:id="rId18" name="Control 14">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>44450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2062" r:id="rId18" name="Control 14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2063" r:id="rId19" name="Control 15">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>44450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2063" r:id="rId19" name="Control 15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2064" r:id="rId20" name="Control 16">
+        <control shapeId="2162" r:id="rId16" name="Control 114">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -13567,13 +13484,263 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2064" r:id="rId20" name="Control 16"/>
+        <control shapeId="2162" r:id="rId16" name="Control 114"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2065" r:id="rId21" name="Control 17">
-          <controlPr defaultSize="0" r:id="rId6">
+        <control shapeId="2161" r:id="rId17" name="Control 113">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>44450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2161" r:id="rId17" name="Control 113"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2160" r:id="rId18" name="Control 112">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2160" r:id="rId18" name="Control 112"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2159" r:id="rId19" name="Control 111">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2159" r:id="rId19" name="Control 111"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2158" r:id="rId20" name="Control 110">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2158" r:id="rId20" name="Control 110"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2157" r:id="rId21" name="Control 109">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2157" r:id="rId21" name="Control 109"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2156" r:id="rId22" name="Control 108">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2156" r:id="rId22" name="Control 108"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2155" r:id="rId23" name="Control 107">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2155" r:id="rId23" name="Control 107"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2154" r:id="rId24" name="Control 106">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2154" r:id="rId24" name="Control 106"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2153" r:id="rId25" name="Control 105">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2153" r:id="rId25" name="Control 105"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2152" r:id="rId26" name="Control 104">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2152" r:id="rId26" name="Control 104"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2151" r:id="rId27" name="Control 103">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -13592,237 +13759,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2065" r:id="rId21" name="Control 17"/>
+        <control shapeId="2151" r:id="rId27" name="Control 103"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2066" r:id="rId22" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2066" r:id="rId22" name="Control 18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2067" r:id="rId23" name="Control 19">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2067" r:id="rId23" name="Control 19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2068" r:id="rId24" name="Control 20">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2068" r:id="rId24" name="Control 20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2069" r:id="rId25" name="Control 21">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2069" r:id="rId25" name="Control 21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2070" r:id="rId26" name="Control 22">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2070" r:id="rId26" name="Control 22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2071" r:id="rId27" name="Control 23">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2071" r:id="rId27" name="Control 23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2072" r:id="rId28" name="Control 24">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2072" r:id="rId28" name="Control 24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2073" r:id="rId29" name="Control 25">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2073" r:id="rId29" name="Control 25"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2074" r:id="rId30" name="Control 26">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2074" r:id="rId30" name="Control 26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2075" r:id="rId31" name="Control 27">
+        <control shapeId="2150" r:id="rId28" name="Control 102">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -13842,13 +13784,63 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2075" r:id="rId31" name="Control 27"/>
+        <control shapeId="2150" r:id="rId28" name="Control 102"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2076" r:id="rId32" name="Control 28">
-          <controlPr defaultSize="0" r:id="rId6">
+        <control shapeId="2149" r:id="rId29" name="Control 101">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2149" r:id="rId29" name="Control 101"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2148" r:id="rId30" name="Control 100">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2148" r:id="rId30" name="Control 100"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2147" r:id="rId31" name="Control 99">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -13867,37 +13859,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2076" r:id="rId32" name="Control 28"/>
+        <control shapeId="2147" r:id="rId31" name="Control 99"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2077" r:id="rId33" name="Control 29">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2077" r:id="rId33" name="Control 29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2078" r:id="rId34" name="Control 30">
+        <control shapeId="2146" r:id="rId32" name="Control 98">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -13917,13 +13884,188 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2078" r:id="rId34" name="Control 30"/>
+        <control shapeId="2146" r:id="rId32" name="Control 98"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2079" r:id="rId35" name="Control 31">
-          <controlPr defaultSize="0" r:id="rId6">
+        <control shapeId="2145" r:id="rId33" name="Control 97">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2145" r:id="rId33" name="Control 97"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2144" r:id="rId34" name="Control 96">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2144" r:id="rId34" name="Control 96"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2143" r:id="rId35" name="Control 95">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2143" r:id="rId35" name="Control 95"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2142" r:id="rId36" name="Control 94">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2142" r:id="rId36" name="Control 94"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2141" r:id="rId37" name="Control 93">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2141" r:id="rId37" name="Control 93"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2140" r:id="rId38" name="Control 92">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2140" r:id="rId38" name="Control 92"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2139" r:id="rId39" name="Control 91">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2139" r:id="rId39" name="Control 91"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2138" r:id="rId40" name="Control 90">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -13942,212 +14084,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2079" r:id="rId35" name="Control 31"/>
+        <control shapeId="2138" r:id="rId40" name="Control 90"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2080" r:id="rId36" name="Control 32">
-          <controlPr defaultSize="0" r:id="rId37">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2080" r:id="rId36" name="Control 32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2081" r:id="rId38" name="Control 33">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2081" r:id="rId38" name="Control 33"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2082" r:id="rId39" name="Control 34">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2082" r:id="rId39" name="Control 34"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2083" r:id="rId40" name="Control 35">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2083" r:id="rId40" name="Control 35"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2084" r:id="rId41" name="Control 36">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2084" r:id="rId41" name="Control 36"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2085" r:id="rId42" name="Control 37">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2085" r:id="rId42" name="Control 37"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2086" r:id="rId43" name="Control 38">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2086" r:id="rId43" name="Control 38"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2087" r:id="rId44" name="Control 39">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2087" r:id="rId44" name="Control 39"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2088" r:id="rId45" name="Control 40">
+        <control shapeId="2137" r:id="rId41" name="Control 89">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -14167,22 +14109,272 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2088" r:id="rId45" name="Control 40"/>
+        <control shapeId="2137" r:id="rId41" name="Control 89"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2089" r:id="rId46" name="Control 41">
-          <controlPr defaultSize="0" r:id="rId6">
+        <control shapeId="2136" r:id="rId42" name="Control 88">
+          <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2136" r:id="rId42" name="Control 88"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2135" r:id="rId43" name="Control 87">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2135" r:id="rId43" name="Control 87"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2134" r:id="rId44" name="Control 86">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2134" r:id="rId44" name="Control 86"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2133" r:id="rId45" name="Control 85">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2133" r:id="rId45" name="Control 85"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2132" r:id="rId46" name="Control 84">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2132" r:id="rId46" name="Control 84"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2131" r:id="rId47" name="Control 83">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2131" r:id="rId47" name="Control 83"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2130" r:id="rId48" name="Control 82">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2130" r:id="rId48" name="Control 82"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2129" r:id="rId49" name="Control 81">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2129" r:id="rId49" name="Control 81"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2128" r:id="rId50" name="Control 80">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2128" r:id="rId50" name="Control 80"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2127" r:id="rId51" name="Control 79">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2127" r:id="rId51" name="Control 79"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2126" r:id="rId52" name="Control 78">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>234950</xdr:rowOff>
@@ -14192,12 +14384,237 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2089" r:id="rId46" name="Control 41"/>
+        <control shapeId="2126" r:id="rId52" name="Control 78"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2090" r:id="rId47" name="Control 42">
+        <control shapeId="2125" r:id="rId53" name="Control 77">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2125" r:id="rId53" name="Control 77"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2124" r:id="rId54" name="Control 76">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2124" r:id="rId54" name="Control 76"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2123" r:id="rId55" name="Control 75">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2123" r:id="rId55" name="Control 75"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2122" r:id="rId56" name="Control 74">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2122" r:id="rId56" name="Control 74"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2121" r:id="rId57" name="Control 73">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2121" r:id="rId57" name="Control 73"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2120" r:id="rId58" name="Control 72">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2120" r:id="rId58" name="Control 72"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2119" r:id="rId59" name="Control 71">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2119" r:id="rId59" name="Control 71"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2118" r:id="rId60" name="Control 70">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2118" r:id="rId60" name="Control 70"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2117" r:id="rId61" name="Control 69">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2117" r:id="rId61" name="Control 69"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2116" r:id="rId62" name="Control 68">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -14217,312 +14634,37 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2090" r:id="rId47" name="Control 42"/>
+        <control shapeId="2116" r:id="rId62" name="Control 68"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2091" r:id="rId48" name="Control 43">
-          <controlPr defaultSize="0" r:id="rId4">
+        <control shapeId="2115" r:id="rId63" name="Control 67">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>234950</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2091" r:id="rId48" name="Control 43"/>
+        <control shapeId="2115" r:id="rId63" name="Control 67"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2092" r:id="rId49" name="Control 44">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2092" r:id="rId49" name="Control 44"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2093" r:id="rId50" name="Control 45">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2093" r:id="rId50" name="Control 45"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2094" r:id="rId51" name="Control 46">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2094" r:id="rId51" name="Control 46"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2095" r:id="rId52" name="Control 47">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2095" r:id="rId52" name="Control 47"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2096" r:id="rId53" name="Control 48">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2096" r:id="rId53" name="Control 48"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2097" r:id="rId54" name="Control 49">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2097" r:id="rId54" name="Control 49"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2098" r:id="rId55" name="Control 50">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2098" r:id="rId55" name="Control 50"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2099" r:id="rId56" name="Control 51">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2099" r:id="rId56" name="Control 51"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2100" r:id="rId57" name="Control 52">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2100" r:id="rId57" name="Control 52"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2101" r:id="rId58" name="Control 53">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>44450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2101" r:id="rId58" name="Control 53"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2102" r:id="rId59" name="Control 54">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>44450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2102" r:id="rId59" name="Control 54"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2103" r:id="rId60" name="Control 55">
+        <control shapeId="2114" r:id="rId64" name="Control 66">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -14542,13 +14684,238 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2103" r:id="rId60" name="Control 55"/>
+        <control shapeId="2114" r:id="rId64" name="Control 66"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2104" r:id="rId61" name="Control 56">
-          <controlPr defaultSize="0" r:id="rId6">
+        <control shapeId="2113" r:id="rId65" name="Control 65">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2113" r:id="rId65" name="Control 65"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2112" r:id="rId66" name="Control 64">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2112" r:id="rId66" name="Control 64"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2111" r:id="rId67" name="Control 63">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2111" r:id="rId67" name="Control 63"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2110" r:id="rId68" name="Control 62">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2110" r:id="rId68" name="Control 62"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2109" r:id="rId69" name="Control 61">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2109" r:id="rId69" name="Control 61"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2108" r:id="rId70" name="Control 60">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2108" r:id="rId70" name="Control 60"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2107" r:id="rId71" name="Control 59">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2107" r:id="rId71" name="Control 59"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2106" r:id="rId72" name="Control 58">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2106" r:id="rId72" name="Control 58"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2105" r:id="rId73" name="Control 57">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2105" r:id="rId73" name="Control 57"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2104" r:id="rId74" name="Control 56">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -14567,237 +14934,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2104" r:id="rId61" name="Control 56"/>
+        <control shapeId="2104" r:id="rId74" name="Control 56"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2105" r:id="rId62" name="Control 57">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2105" r:id="rId62" name="Control 57"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2106" r:id="rId63" name="Control 58">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2106" r:id="rId63" name="Control 58"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2107" r:id="rId64" name="Control 59">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2107" r:id="rId64" name="Control 59"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2108" r:id="rId65" name="Control 60">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2108" r:id="rId65" name="Control 60"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2109" r:id="rId66" name="Control 61">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2109" r:id="rId66" name="Control 61"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2110" r:id="rId67" name="Control 62">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2110" r:id="rId67" name="Control 62"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2111" r:id="rId68" name="Control 63">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2111" r:id="rId68" name="Control 63"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2112" r:id="rId69" name="Control 64">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2112" r:id="rId69" name="Control 64"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2113" r:id="rId70" name="Control 65">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2113" r:id="rId70" name="Control 65"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2114" r:id="rId71" name="Control 66">
+        <control shapeId="2103" r:id="rId75" name="Control 55">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -14817,13 +14959,338 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2114" r:id="rId71" name="Control 66"/>
+        <control shapeId="2103" r:id="rId75" name="Control 55"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2115" r:id="rId72" name="Control 67">
-          <controlPr defaultSize="0" r:id="rId6">
+        <control shapeId="2102" r:id="rId76" name="Control 54">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>44450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2102" r:id="rId76" name="Control 54"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2101" r:id="rId77" name="Control 53">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>44450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2101" r:id="rId77" name="Control 53"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2100" r:id="rId78" name="Control 52">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2100" r:id="rId78" name="Control 52"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2099" r:id="rId79" name="Control 51">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2099" r:id="rId79" name="Control 51"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2098" r:id="rId80" name="Control 50">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2098" r:id="rId80" name="Control 50"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2097" r:id="rId81" name="Control 49">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2097" r:id="rId81" name="Control 49"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2096" r:id="rId82" name="Control 48">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2096" r:id="rId82" name="Control 48"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2095" r:id="rId83" name="Control 47">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2095" r:id="rId83" name="Control 47"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2094" r:id="rId84" name="Control 46">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2094" r:id="rId84" name="Control 46"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2093" r:id="rId85" name="Control 45">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2093" r:id="rId85" name="Control 45"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2092" r:id="rId86" name="Control 44">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2092" r:id="rId86" name="Control 44"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2091" r:id="rId87" name="Control 43">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2091" r:id="rId87" name="Control 43"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2090" r:id="rId88" name="Control 42">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2090" r:id="rId88" name="Control 42"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2089" r:id="rId89" name="Control 41">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -14842,537 +15309,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2115" r:id="rId72" name="Control 67"/>
+        <control shapeId="2089" r:id="rId89" name="Control 41"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2116" r:id="rId73" name="Control 68">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2116" r:id="rId73" name="Control 68"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2117" r:id="rId74" name="Control 69">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2117" r:id="rId74" name="Control 69"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2118" r:id="rId75" name="Control 70">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2118" r:id="rId75" name="Control 70"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2119" r:id="rId76" name="Control 71">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2119" r:id="rId76" name="Control 71"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2120" r:id="rId77" name="Control 72">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2120" r:id="rId77" name="Control 72"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2121" r:id="rId78" name="Control 73">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2121" r:id="rId78" name="Control 73"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2122" r:id="rId79" name="Control 74">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2122" r:id="rId79" name="Control 74"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2123" r:id="rId80" name="Control 75">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2123" r:id="rId80" name="Control 75"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2124" r:id="rId81" name="Control 76">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2124" r:id="rId81" name="Control 76"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2125" r:id="rId82" name="Control 77">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2125" r:id="rId82" name="Control 77"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2126" r:id="rId83" name="Control 78">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>234950</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2126" r:id="rId83" name="Control 78"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2127" r:id="rId84" name="Control 79">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2127" r:id="rId84" name="Control 79"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2128" r:id="rId85" name="Control 80">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2128" r:id="rId85" name="Control 80"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2129" r:id="rId86" name="Control 81">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2129" r:id="rId86" name="Control 81"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2130" r:id="rId87" name="Control 82">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2130" r:id="rId87" name="Control 82"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2131" r:id="rId88" name="Control 83">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2131" r:id="rId88" name="Control 83"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2132" r:id="rId89" name="Control 84">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2132" r:id="rId89" name="Control 84"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2133" r:id="rId90" name="Control 85">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2133" r:id="rId90" name="Control 85"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2134" r:id="rId91" name="Control 86">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2134" r:id="rId91" name="Control 86"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2135" r:id="rId92" name="Control 87">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2135" r:id="rId92" name="Control 87"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2136" r:id="rId93" name="Control 88">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2136" r:id="rId93" name="Control 88"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2137" r:id="rId94" name="Control 89">
+        <control shapeId="2088" r:id="rId90" name="Control 40">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -15392,13 +15334,213 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2137" r:id="rId94" name="Control 89"/>
+        <control shapeId="2088" r:id="rId90" name="Control 40"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2138" r:id="rId95" name="Control 90">
-          <controlPr defaultSize="0" r:id="rId6">
+        <control shapeId="2087" r:id="rId91" name="Control 39">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2087" r:id="rId91" name="Control 39"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2086" r:id="rId92" name="Control 38">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2086" r:id="rId92" name="Control 38"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2085" r:id="rId93" name="Control 37">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2085" r:id="rId93" name="Control 37"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2084" r:id="rId94" name="Control 36">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2084" r:id="rId94" name="Control 36"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2083" r:id="rId95" name="Control 35">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2083" r:id="rId95" name="Control 35"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2082" r:id="rId96" name="Control 34">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2082" r:id="rId96" name="Control 34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2081" r:id="rId97" name="Control 33">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2081" r:id="rId97" name="Control 33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2080" r:id="rId98" name="Control 32">
+          <controlPr defaultSize="0" r:id="rId99">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2080" r:id="rId98" name="Control 32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2079" r:id="rId100" name="Control 31">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -15417,187 +15559,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2138" r:id="rId95" name="Control 90"/>
+        <control shapeId="2079" r:id="rId100" name="Control 31"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2139" r:id="rId96" name="Control 91">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2139" r:id="rId96" name="Control 91"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2140" r:id="rId97" name="Control 92">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2140" r:id="rId97" name="Control 92"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2141" r:id="rId98" name="Control 93">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2141" r:id="rId98" name="Control 93"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2142" r:id="rId99" name="Control 94">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2142" r:id="rId99" name="Control 94"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2143" r:id="rId100" name="Control 95">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2143" r:id="rId100" name="Control 95"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2144" r:id="rId101" name="Control 96">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2144" r:id="rId101" name="Control 96"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2145" r:id="rId102" name="Control 97">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2145" r:id="rId102" name="Control 97"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2146" r:id="rId103" name="Control 98">
+        <control shapeId="2078" r:id="rId101" name="Control 30">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -15617,13 +15584,38 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2146" r:id="rId103" name="Control 98"/>
+        <control shapeId="2078" r:id="rId101" name="Control 30"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2147" r:id="rId104" name="Control 99">
-          <controlPr defaultSize="0" r:id="rId6">
+        <control shapeId="2077" r:id="rId102" name="Control 29">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2077" r:id="rId102" name="Control 29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2076" r:id="rId103" name="Control 28">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -15642,62 +15634,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2147" r:id="rId104" name="Control 99"/>
+        <control shapeId="2076" r:id="rId103" name="Control 28"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2148" r:id="rId105" name="Control 100">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2148" r:id="rId105" name="Control 100"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2149" r:id="rId106" name="Control 101">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2149" r:id="rId106" name="Control 101"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2150" r:id="rId107" name="Control 102">
+        <control shapeId="2075" r:id="rId104" name="Control 27">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -15717,13 +15659,238 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2150" r:id="rId107" name="Control 102"/>
+        <control shapeId="2075" r:id="rId104" name="Control 27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2151" r:id="rId108" name="Control 103">
-          <controlPr defaultSize="0" r:id="rId6">
+        <control shapeId="2074" r:id="rId105" name="Control 26">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2074" r:id="rId105" name="Control 26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2073" r:id="rId106" name="Control 25">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2073" r:id="rId106" name="Control 25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2072" r:id="rId107" name="Control 24">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2072" r:id="rId107" name="Control 24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2071" r:id="rId108" name="Control 23">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2071" r:id="rId108" name="Control 23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2070" r:id="rId109" name="Control 22">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2070" r:id="rId109" name="Control 22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2069" r:id="rId110" name="Control 21">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2069" r:id="rId110" name="Control 21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2068" r:id="rId111" name="Control 20">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2068" r:id="rId111" name="Control 20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2067" r:id="rId112" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2067" r:id="rId112" name="Control 19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2066" r:id="rId113" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2066" r:id="rId113" name="Control 18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2065" r:id="rId114" name="Control 17">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -15742,262 +15909,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2151" r:id="rId108" name="Control 103"/>
+        <control shapeId="2065" r:id="rId114" name="Control 17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2152" r:id="rId109" name="Control 104">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2152" r:id="rId109" name="Control 104"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2153" r:id="rId110" name="Control 105">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2153" r:id="rId110" name="Control 105"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2154" r:id="rId111" name="Control 106">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2154" r:id="rId111" name="Control 106"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2155" r:id="rId112" name="Control 107">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2155" r:id="rId112" name="Control 107"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2156" r:id="rId113" name="Control 108">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2156" r:id="rId113" name="Control 108"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2157" r:id="rId114" name="Control 109">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2157" r:id="rId114" name="Control 109"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2158" r:id="rId115" name="Control 110">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2158" r:id="rId115" name="Control 110"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2159" r:id="rId116" name="Control 111">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2159" r:id="rId116" name="Control 111"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2160" r:id="rId117" name="Control 112">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2160" r:id="rId117" name="Control 112"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2161" r:id="rId118" name="Control 113">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>44450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2161" r:id="rId118" name="Control 113"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2162" r:id="rId119" name="Control 114">
+        <control shapeId="2064" r:id="rId115" name="Control 16">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -16017,13 +15934,338 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2162" r:id="rId119" name="Control 114"/>
+        <control shapeId="2064" r:id="rId115" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2163" r:id="rId120" name="Control 115">
-          <controlPr defaultSize="0" r:id="rId6">
+        <control shapeId="2063" r:id="rId116" name="Control 15">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>44450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2063" r:id="rId116" name="Control 15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2062" r:id="rId117" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>44450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2062" r:id="rId117" name="Control 14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2061" r:id="rId118" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2061" r:id="rId118" name="Control 13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2060" r:id="rId119" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2060" r:id="rId119" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2059" r:id="rId120" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2059" r:id="rId120" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2058" r:id="rId121" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2058" r:id="rId121" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2057" r:id="rId122" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2057" r:id="rId122" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2056" r:id="rId123" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2056" r:id="rId123" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2055" r:id="rId124" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2055" r:id="rId124" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2054" r:id="rId125" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2054" r:id="rId125" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2053" r:id="rId126" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2053" r:id="rId126" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId127" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId127" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2051" r:id="rId128" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2051" r:id="rId128" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2050" r:id="rId129" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -16042,237 +16284,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2163" r:id="rId120" name="Control 115"/>
+        <control shapeId="2050" r:id="rId129" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2164" r:id="rId121" name="Control 116">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2164" r:id="rId121" name="Control 116"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2165" r:id="rId122" name="Control 117">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2165" r:id="rId122" name="Control 117"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2166" r:id="rId123" name="Control 118">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2166" r:id="rId123" name="Control 118"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2167" r:id="rId124" name="Control 119">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2167" r:id="rId124" name="Control 119"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2168" r:id="rId125" name="Control 120">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2168" r:id="rId125" name="Control 120"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2169" r:id="rId126" name="Control 121">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2169" r:id="rId126" name="Control 121"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2170" r:id="rId127" name="Control 122">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2170" r:id="rId127" name="Control 122"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2171" r:id="rId128" name="Control 123">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2171" r:id="rId128" name="Control 123"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2172" r:id="rId129" name="Control 124">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2172" r:id="rId129" name="Control 124"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2173" r:id="rId130" name="Control 125">
+        <control shapeId="2049" r:id="rId130" name="Control 1">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -16292,7 +16309,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2173" r:id="rId130" name="Control 125"/>
+        <control shapeId="2049" r:id="rId130" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
